--- a/SchedulingData/dynamic16/pso/scheduling1_19.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.12</v>
+        <v>50.3</v>
       </c>
       <c r="E2" t="n">
-        <v>25.788</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="D3" t="n">
-        <v>60.54</v>
+        <v>128.34</v>
       </c>
       <c r="E3" t="n">
-        <v>27.096</v>
+        <v>22.456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.40000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="E4" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="5">
@@ -523,131 +523,131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60.54</v>
+        <v>61.9</v>
       </c>
       <c r="D5" t="n">
-        <v>114.94</v>
+        <v>133.26</v>
       </c>
       <c r="E5" t="n">
-        <v>24.256</v>
+        <v>20.964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>70.38</v>
+        <v>59.76</v>
       </c>
       <c r="E6" t="n">
-        <v>25.632</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>93.2</v>
+        <v>72.08</v>
       </c>
       <c r="E7" t="n">
-        <v>25.84</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54.12</v>
+        <v>128.34</v>
       </c>
       <c r="D8" t="n">
-        <v>141.36</v>
+        <v>201.24</v>
       </c>
       <c r="E8" t="n">
-        <v>21.644</v>
+        <v>18.296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>60.92</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>26.568</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>114.94</v>
+        <v>201.24</v>
       </c>
       <c r="D10" t="n">
-        <v>177.88</v>
+        <v>244.12</v>
       </c>
       <c r="E10" t="n">
-        <v>21.552</v>
+        <v>14.648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>93.2</v>
+        <v>59.76</v>
       </c>
       <c r="D11" t="n">
-        <v>140.9</v>
+        <v>128.62</v>
       </c>
       <c r="E11" t="n">
-        <v>22.2</v>
+        <v>22.408</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>119.44</v>
+        <v>146.08</v>
       </c>
       <c r="E12" t="n">
-        <v>23.336</v>
+        <v>22.152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>177.88</v>
+        <v>72.08</v>
       </c>
       <c r="D13" t="n">
-        <v>236.3</v>
+        <v>106.26</v>
       </c>
       <c r="E13" t="n">
-        <v>17.34</v>
+        <v>24.184</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60.92</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>105.28</v>
+        <v>67.2</v>
       </c>
       <c r="E14" t="n">
-        <v>23.752</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>141.36</v>
+        <v>67.2</v>
       </c>
       <c r="D15" t="n">
-        <v>211.04</v>
+        <v>145.04</v>
       </c>
       <c r="E15" t="n">
-        <v>17.276</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>105.28</v>
+        <v>145.04</v>
       </c>
       <c r="D16" t="n">
-        <v>157.96</v>
+        <v>214.64</v>
       </c>
       <c r="E16" t="n">
-        <v>20.104</v>
+        <v>19.396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>236.3</v>
+        <v>146.08</v>
       </c>
       <c r="D17" t="n">
-        <v>302.62</v>
+        <v>201.58</v>
       </c>
       <c r="E17" t="n">
-        <v>13.308</v>
+        <v>19.712</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>140.9</v>
+        <v>128.62</v>
       </c>
       <c r="D18" t="n">
-        <v>187.02</v>
+        <v>203.32</v>
       </c>
       <c r="E18" t="n">
-        <v>19.208</v>
+        <v>18.028</v>
       </c>
     </row>
     <row r="19">
@@ -789,93 +789,93 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>157.96</v>
+        <v>214.64</v>
       </c>
       <c r="D19" t="n">
-        <v>207.34</v>
+        <v>263</v>
       </c>
       <c r="E19" t="n">
-        <v>17.296</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>187.02</v>
+        <v>263</v>
       </c>
       <c r="D20" t="n">
-        <v>262.76</v>
+        <v>305.5</v>
       </c>
       <c r="E20" t="n">
-        <v>15.724</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>119.44</v>
+        <v>203.32</v>
       </c>
       <c r="D21" t="n">
-        <v>172.12</v>
+        <v>271.74</v>
       </c>
       <c r="E21" t="n">
-        <v>19.688</v>
+        <v>13.816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>302.62</v>
+        <v>271.74</v>
       </c>
       <c r="D22" t="n">
-        <v>360.94</v>
+        <v>328.14</v>
       </c>
       <c r="E22" t="n">
-        <v>9.096</v>
+        <v>10.776</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>262.76</v>
+        <v>305.5</v>
       </c>
       <c r="D23" t="n">
-        <v>337.76</v>
+        <v>365.1</v>
       </c>
       <c r="E23" t="n">
-        <v>12.344</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>207.34</v>
+        <v>365.1</v>
       </c>
       <c r="D24" t="n">
-        <v>273.9</v>
+        <v>459.6</v>
       </c>
       <c r="E24" t="n">
-        <v>12.76</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="25">
@@ -903,93 +903,93 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>337.76</v>
+        <v>244.12</v>
       </c>
       <c r="D25" t="n">
-        <v>386.12</v>
+        <v>290.42</v>
       </c>
       <c r="E25" t="n">
-        <v>9.128</v>
+        <v>12.128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>386.12</v>
+        <v>201.58</v>
       </c>
       <c r="D26" t="n">
-        <v>455.32</v>
+        <v>254.18</v>
       </c>
       <c r="E26" t="n">
-        <v>5.828</v>
+        <v>16.072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>273.9</v>
+        <v>254.18</v>
       </c>
       <c r="D27" t="n">
-        <v>327.34</v>
+        <v>304.04</v>
       </c>
       <c r="E27" t="n">
-        <v>8.055999999999999</v>
+        <v>13.216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>172.12</v>
+        <v>290.42</v>
       </c>
       <c r="D28" t="n">
-        <v>239.12</v>
+        <v>353.52</v>
       </c>
       <c r="E28" t="n">
-        <v>16.608</v>
+        <v>7.928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>211.04</v>
+        <v>353.52</v>
       </c>
       <c r="D29" t="n">
-        <v>250.54</v>
+        <v>424.94</v>
       </c>
       <c r="E29" t="n">
-        <v>14.956</v>
+        <v>3.896</v>
       </c>
     </row>
     <row r="30">
@@ -998,60 +998,60 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>239.12</v>
+        <v>304.04</v>
       </c>
       <c r="D30" t="n">
-        <v>280.82</v>
+        <v>335.08</v>
       </c>
       <c r="E30" t="n">
-        <v>13.568</v>
+        <v>10.752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>327.34</v>
+        <v>424.94</v>
       </c>
       <c r="D31" t="n">
-        <v>379.06</v>
+        <v>489.24</v>
       </c>
       <c r="E31" t="n">
-        <v>5.504</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>70.38</v>
+        <v>489.24</v>
       </c>
       <c r="D32" t="n">
-        <v>122.48</v>
+        <v>555.05</v>
       </c>
       <c r="E32" t="n">
-        <v>22.552</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,13 +1059,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>250.54</v>
+        <v>459.6</v>
       </c>
       <c r="D33" t="n">
-        <v>303.04</v>
+        <v>497.2</v>
       </c>
       <c r="E33" t="n">
-        <v>11.836</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="34">
@@ -1074,188 +1074,188 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>303.04</v>
+        <v>328.14</v>
       </c>
       <c r="D34" t="n">
-        <v>392.34</v>
+        <v>401.84</v>
       </c>
       <c r="E34" t="n">
-        <v>8.476000000000001</v>
+        <v>7.476</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>122.48</v>
+        <v>555.05</v>
       </c>
       <c r="D35" t="n">
-        <v>164.98</v>
+        <v>618.95</v>
       </c>
       <c r="E35" t="n">
-        <v>19.432</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>455.32</v>
+        <v>401.84</v>
       </c>
       <c r="D36" t="n">
-        <v>496.82</v>
+        <v>481.62</v>
       </c>
       <c r="E36" t="n">
-        <v>3.308</v>
+        <v>3.108</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>379.06</v>
+        <v>133.26</v>
       </c>
       <c r="D37" t="n">
-        <v>445.02</v>
+        <v>189.98</v>
       </c>
       <c r="E37" t="n">
-        <v>1.528</v>
+        <v>18.412</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>445.02</v>
+        <v>106.26</v>
       </c>
       <c r="D38" t="n">
-        <v>518.86</v>
+        <v>163.46</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>21.064</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>392.34</v>
+        <v>189.98</v>
       </c>
       <c r="D39" t="n">
-        <v>467.04</v>
+        <v>246.12</v>
       </c>
       <c r="E39" t="n">
-        <v>4.096</v>
+        <v>14.928</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>280.82</v>
+        <v>481.62</v>
       </c>
       <c r="D40" t="n">
-        <v>328.22</v>
+        <v>557.1</v>
       </c>
       <c r="E40" t="n">
-        <v>10.448</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>360.94</v>
+        <v>557.1</v>
       </c>
       <c r="D41" t="n">
-        <v>440.74</v>
+        <v>611.2</v>
       </c>
       <c r="E41" t="n">
-        <v>6.216</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>518.86</v>
+        <v>611.2</v>
       </c>
       <c r="D42" t="n">
-        <v>582.72</v>
+        <v>654.1799999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>26.784</v>
+        <v>23.592</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>440.74</v>
+        <v>335.08</v>
       </c>
       <c r="D43" t="n">
-        <v>485.6</v>
+        <v>410.8</v>
       </c>
       <c r="E43" t="n">
-        <v>3.36</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="44">
@@ -1264,55 +1264,55 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>485.6</v>
+        <v>246.12</v>
       </c>
       <c r="D44" t="n">
-        <v>519.84</v>
+        <v>297.98</v>
       </c>
       <c r="E44" t="n">
-        <v>0.576</v>
+        <v>10.872</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>519.84</v>
+        <v>410.8</v>
       </c>
       <c r="D45" t="n">
-        <v>620.09</v>
+        <v>469.32</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>3.548</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>496.82</v>
+        <v>163.46</v>
       </c>
       <c r="D46" t="n">
-        <v>562.1</v>
+        <v>211.98</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>16.852</v>
       </c>
     </row>
     <row r="47">
@@ -1321,36 +1321,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>562.1</v>
+        <v>618.95</v>
       </c>
       <c r="D47" t="n">
-        <v>646.36</v>
+        <v>689.71</v>
       </c>
       <c r="E47" t="n">
-        <v>26.204</v>
+        <v>22.784</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>646.36</v>
+        <v>211.98</v>
       </c>
       <c r="D48" t="n">
-        <v>704.66</v>
+        <v>267.42</v>
       </c>
       <c r="E48" t="n">
-        <v>22.484</v>
+        <v>13.948</v>
       </c>
     </row>
     <row r="49">
@@ -1359,136 +1359,136 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>582.72</v>
+        <v>497.2</v>
       </c>
       <c r="D49" t="n">
-        <v>641.8200000000001</v>
+        <v>559.8</v>
       </c>
       <c r="E49" t="n">
-        <v>23.484</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>467.04</v>
+        <v>559.8</v>
       </c>
       <c r="D50" t="n">
-        <v>518.16</v>
+        <v>605.5</v>
       </c>
       <c r="E50" t="n">
-        <v>1.104</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>518.16</v>
+        <v>297.98</v>
       </c>
       <c r="D51" t="n">
-        <v>592.95</v>
+        <v>357.38</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>8.552</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>620.09</v>
+        <v>267.42</v>
       </c>
       <c r="D52" t="n">
-        <v>668.5700000000001</v>
+        <v>314.52</v>
       </c>
       <c r="E52" t="n">
-        <v>26.832</v>
+        <v>10.868</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>164.98</v>
+        <v>357.38</v>
       </c>
       <c r="D53" t="n">
-        <v>219.24</v>
+        <v>416.68</v>
       </c>
       <c r="E53" t="n">
-        <v>15.636</v>
+        <v>5.252</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>219.24</v>
+        <v>689.71</v>
       </c>
       <c r="D54" t="n">
-        <v>279.24</v>
+        <v>738.0700000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>11.256</v>
+        <v>19.568</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>592.95</v>
+        <v>469.32</v>
       </c>
       <c r="D55" t="n">
-        <v>670.21</v>
+        <v>529.22</v>
       </c>
       <c r="E55" t="n">
-        <v>25.944</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1496,13 +1496,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>279.24</v>
+        <v>529.22</v>
       </c>
       <c r="D56" t="n">
-        <v>360.94</v>
+        <v>611.52</v>
       </c>
       <c r="E56" t="n">
-        <v>7.656</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="57">
@@ -1511,112 +1511,112 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>360.94</v>
+        <v>314.52</v>
       </c>
       <c r="D57" t="n">
-        <v>427.12</v>
+        <v>364.42</v>
       </c>
       <c r="E57" t="n">
-        <v>4.128</v>
+        <v>7.988</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>670.21</v>
+        <v>605.5</v>
       </c>
       <c r="D58" t="n">
-        <v>725.21</v>
+        <v>671.22</v>
       </c>
       <c r="E58" t="n">
-        <v>22.564</v>
+        <v>23.628</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>641.8200000000001</v>
+        <v>416.68</v>
       </c>
       <c r="D59" t="n">
-        <v>701.22</v>
+        <v>477</v>
       </c>
       <c r="E59" t="n">
-        <v>20.184</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>328.22</v>
+        <v>477</v>
       </c>
       <c r="D60" t="n">
-        <v>368.82</v>
+        <v>574.96</v>
       </c>
       <c r="E60" t="n">
-        <v>8.007999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>368.82</v>
+        <v>671.22</v>
       </c>
       <c r="D61" t="n">
-        <v>431.92</v>
+        <v>730.3</v>
       </c>
       <c r="E61" t="n">
-        <v>3.808</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>704.66</v>
+        <v>364.42</v>
       </c>
       <c r="D62" t="n">
-        <v>753.36</v>
+        <v>403.56</v>
       </c>
       <c r="E62" t="n">
-        <v>19.244</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="63">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>427.12</v>
+        <v>403.56</v>
       </c>
       <c r="D63" t="n">
-        <v>500.66</v>
+        <v>473.24</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="64">
@@ -1644,55 +1644,74 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>500.66</v>
+        <v>473.24</v>
       </c>
       <c r="D64" t="n">
-        <v>572.5599999999999</v>
+        <v>558.37</v>
       </c>
       <c r="E64" t="n">
-        <v>25.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>701.22</v>
+        <v>558.37</v>
       </c>
       <c r="D65" t="n">
-        <v>735.4</v>
+        <v>632.9299999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>17.896</v>
+        <v>27.184</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>725.21</v>
+        <v>611.52</v>
       </c>
       <c r="D66" t="n">
-        <v>788.61</v>
+        <v>649.86</v>
       </c>
       <c r="E66" t="n">
-        <v>19.324</v>
+        <v>23.696</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>pond36</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>574.96</v>
+      </c>
+      <c r="D67" t="n">
+        <v>638.76</v>
+      </c>
+      <c r="E67" t="n">
+        <v>26.28</v>
       </c>
     </row>
   </sheetData>
